--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(0-4) - (75-79)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(0-4) - (75-79)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -662,7 +662,7 @@
         <v>2020</v>
       </c>
       <c r="D3" t="n">
-        <v>16616</v>
+        <v>16624</v>
       </c>
       <c r="E3" t="n">
         <v>15180</v>
@@ -698,13 +698,13 @@
         <v>15145.20000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="Q3" t="n">
         <v>256.2</v>
       </c>
       <c r="R3" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.9</v>
@@ -716,26 +716,26 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1727.0 (±256.2)</t>
+          <t>1735.0 (±256.2)</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>11.6% (±1.9%)</t>
+          <t>11.7% (±1.9%)</t>
         </is>
       </c>
       <c r="W3" t="n">
         <v>5428677</v>
       </c>
       <c r="X3" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>31.8(±4.7)</t>
+          <t>32.0(±4.7)</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>2020</v>
       </c>
       <c r="D4" t="n">
-        <v>24288</v>
+        <v>24290</v>
       </c>
       <c r="E4" t="n">
         <v>20012</v>
@@ -790,7 +790,7 @@
         <v>20035.09999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>4590</v>
+        <v>4592</v>
       </c>
       <c r="Q4" t="n">
         <v>337.1</v>
@@ -808,7 +808,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>4590.0 (±337.1)</t>
+          <t>4592.0 (±337.1)</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -820,14 +820,14 @@
         <v>3360300</v>
       </c>
       <c r="X4" t="n">
-        <v>136.6</v>
+        <v>136.7</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>136.6(±10.0)</t>
+          <t>136.7(±10.0)</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
         <v>2020</v>
       </c>
       <c r="D5" t="n">
-        <v>9021</v>
+        <v>9009</v>
       </c>
       <c r="E5" t="n">
         <v>8944</v>
@@ -882,13 +882,13 @@
         <v>8731.5</v>
       </c>
       <c r="P5" t="n">
-        <v>654.6</v>
+        <v>642.6</v>
       </c>
       <c r="Q5" t="n">
         <v>365.1</v>
       </c>
       <c r="R5" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="S5" t="n">
         <v>4.5</v>
@@ -900,26 +900,26 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>654.6 (±365.1)</t>
+          <t>642.6 (±365.1)</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>7.8% (±4.5%)</t>
+          <t>7.7% (±4.5%)</t>
         </is>
       </c>
       <c r="W5" t="n">
         <v>1937851</v>
       </c>
       <c r="X5" t="n">
-        <v>33.8</v>
+        <v>33.2</v>
       </c>
       <c r="Y5" t="n">
         <v>18.8</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>33.8(±18.8)</t>
+          <t>33.2(±18.8)</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
         <v>2020</v>
       </c>
       <c r="D9" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E9" t="n">
         <v>2578</v>
@@ -1250,7 +1250,7 @@
         <v>2545.4</v>
       </c>
       <c r="P9" t="n">
-        <v>-10.8</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="Q9" t="n">
         <v>85.59999999999999</v>
@@ -1259,7 +1259,7 @@
         <v>-0.4</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1268,26 +1268,26 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-10.8 (±85.6)</t>
+          <t>-9.8 (±85.6)</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-0.4% (±3.4%)</t>
+          <t>-0.4% (±3.3%)</t>
         </is>
       </c>
       <c r="W9" t="n">
         <v>642243</v>
       </c>
       <c r="X9" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="Y9" t="n">
         <v>13.3</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>-1.7(±13.3)</t>
+          <t>-1.5(±13.3)</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
         <v>2020</v>
       </c>
       <c r="D11" t="n">
-        <v>77867</v>
+        <v>77882</v>
       </c>
       <c r="E11" t="n">
         <v>69489</v>
@@ -1434,16 +1434,16 @@
         <v>71457.79999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>6784.4</v>
+        <v>6799.4</v>
       </c>
       <c r="Q11" t="n">
         <v>375.2</v>
       </c>
       <c r="R11" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1452,26 +1452,26 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>6784.4 (±375.2)</t>
+          <t>6799.4 (±375.2)</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>9.5% (±0.5%)</t>
+          <t>9.6% (±0.6%)</t>
         </is>
       </c>
       <c r="W11" t="n">
         <v>32131666</v>
       </c>
       <c r="X11" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>21.1(±1.2)</t>
+          <t>21.2(±1.1)</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
         <v>2020</v>
       </c>
       <c r="D15" t="n">
-        <v>83465</v>
+        <v>83486</v>
       </c>
       <c r="E15" t="n">
         <v>78526</v>
@@ -1802,7 +1802,7 @@
         <v>78133.5</v>
       </c>
       <c r="P15" t="n">
-        <v>7557</v>
+        <v>7578</v>
       </c>
       <c r="Q15" t="n">
         <v>2225.5</v>
@@ -1811,7 +1811,7 @@
         <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1820,12 +1820,12 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>7557.0 (±2225.5)</t>
+          <t>7578.0 (±2225.5)</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>10.0% (±3.2%)</t>
+          <t>10.0% (±3.1%)</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -1950,7 +1950,7 @@
         <v>2020</v>
       </c>
       <c r="D17" t="n">
-        <v>7280</v>
+        <v>7374</v>
       </c>
       <c r="E17" t="n">
         <v>7130</v>
@@ -1986,16 +1986,16 @@
         <v>7016.299999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>599.2</v>
+        <v>693.2</v>
       </c>
       <c r="Q17" t="n">
         <v>335.5</v>
       </c>
       <c r="R17" t="n">
-        <v>9</v>
+        <v>10.4</v>
       </c>
       <c r="S17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2004,26 +2004,26 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>599.2 (±335.5)</t>
+          <t>693.2 (±335.5)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>9.0% (±5.2%)</t>
+          <t>10.4% (±5.3%)</t>
         </is>
       </c>
       <c r="W17" t="n">
         <v>1369447</v>
       </c>
       <c r="X17" t="n">
-        <v>43.8</v>
+        <v>50.6</v>
       </c>
       <c r="Y17" t="n">
         <v>24.5</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>43.8(±24.5)</t>
+          <t>50.6(±24.5)</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
         <v>2020</v>
       </c>
       <c r="D18" t="n">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="E18" t="n">
         <v>576</v>
@@ -2078,16 +2078,16 @@
         <v>626.1000000000001</v>
       </c>
       <c r="P18" t="n">
-        <v>68.40000000000001</v>
+        <v>50.4</v>
       </c>
       <c r="Q18" t="n">
         <v>31.5</v>
       </c>
       <c r="R18" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="S18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2096,26 +2096,26 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>68.4 (±31.5)</t>
+          <t>50.4 (±31.5)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>11.5% (±5.6%)</t>
+          <t>8.5% (±5.5%)</t>
         </is>
       </c>
       <c r="W18" t="n">
         <v>295555</v>
       </c>
       <c r="X18" t="n">
-        <v>23.1</v>
+        <v>17.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>23.1(±10.7)</t>
+          <t>17.1(±10.6)</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
         <v>2020</v>
       </c>
       <c r="D20" t="n">
-        <v>1381</v>
+        <v>1399</v>
       </c>
       <c r="E20" t="n">
         <v>1346</v>
@@ -2262,16 +2262,16 @@
         <v>1351.8</v>
       </c>
       <c r="P20" t="n">
-        <v>93.8</v>
+        <v>111.8</v>
       </c>
       <c r="Q20" t="n">
         <v>64.59999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2280,26 +2280,26 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>93.8 (±64.6)</t>
+          <t>111.8 (±64.6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>7.3% (±5.1%)</t>
+          <t>8.7% (±5.2%)</t>
         </is>
       </c>
       <c r="W20" t="n">
         <v>301760</v>
       </c>
       <c r="X20" t="n">
-        <v>31.1</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>31.1(±21.4)</t>
+          <t>37.0(±21.5)</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>2020</v>
       </c>
       <c r="D22" t="n">
-        <v>5868</v>
+        <v>5869</v>
       </c>
       <c r="E22" t="n">
         <v>5666</v>
@@ -2446,16 +2446,16 @@
         <v>5876.300000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>55.2</v>
+        <v>56.2</v>
       </c>
       <c r="Q22" t="n">
         <v>63.5</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>55.2 (±63.5)</t>
+          <t>56.2 (±63.5)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.9% (±1.0%)</t>
+          <t>1.0% (±1.1%)</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -2594,7 +2594,7 @@
         <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>14992</v>
+        <v>15033</v>
       </c>
       <c r="E24" t="n">
         <v>13443</v>
@@ -2630,13 +2630,13 @@
         <v>13877.5</v>
       </c>
       <c r="P24" t="n">
-        <v>1333</v>
+        <v>1374</v>
       </c>
       <c r="Q24" t="n">
         <v>218.5</v>
       </c>
       <c r="R24" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="S24" t="n">
         <v>1.8</v>
@@ -2648,26 +2648,26 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>1333.0 (±218.5)</t>
+          <t>1374.0 (±218.5)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>9.8% (±1.8%)</t>
+          <t>10.1% (±1.8%)</t>
         </is>
       </c>
       <c r="W24" t="n">
         <v>5002765</v>
       </c>
       <c r="X24" t="n">
-        <v>26.6</v>
+        <v>27.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>26.6(±4.4)</t>
+          <t>27.5(±4.3)</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
         <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>11455</v>
+        <v>11456</v>
       </c>
       <c r="E26" t="n">
         <v>9895</v>
@@ -2814,7 +2814,7 @@
         <v>10066.4</v>
       </c>
       <c r="P26" t="n">
-        <v>1509.8</v>
+        <v>1510.8</v>
       </c>
       <c r="Q26" t="n">
         <v>121.2</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>1509.8 (±121.2)</t>
+          <t>1510.8 (±121.2)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2847,11 +2847,11 @@
         <v>56.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>56.7(±4.5)</t>
+          <t>56.7(±4.6)</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
         <v>2020</v>
       </c>
       <c r="D30" t="n">
-        <v>8961</v>
+        <v>8972</v>
       </c>
       <c r="E30" t="n">
         <v>8366</v>
@@ -3182,16 +3182,16 @@
         <v>8484.099999999999</v>
       </c>
       <c r="P30" t="n">
-        <v>585.2</v>
+        <v>596.2</v>
       </c>
       <c r="Q30" t="n">
         <v>108.3</v>
       </c>
       <c r="R30" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="S30" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3200,26 +3200,26 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>585.2 (±108.3)</t>
+          <t>596.2 (±108.3)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>7.0% (±1.4%)</t>
+          <t>7.1% (±1.3%)</t>
         </is>
       </c>
       <c r="W30" t="n">
         <v>4057277</v>
       </c>
       <c r="X30" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="Y30" t="n">
         <v>2.7</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>14.4(±2.7)</t>
+          <t>14.7(±2.7)</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3330,7 @@
         <v>2020</v>
       </c>
       <c r="D32" t="n">
-        <v>26337</v>
+        <v>26347</v>
       </c>
       <c r="E32" t="n">
         <v>23536</v>
@@ -3366,16 +3366,16 @@
         <v>23672.8</v>
       </c>
       <c r="P32" t="n">
-        <v>3097.6</v>
+        <v>3107.6</v>
       </c>
       <c r="Q32" t="n">
         <v>433.4</v>
       </c>
       <c r="R32" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3384,26 +3384,26 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>3097.6 (±433.4)</t>
+          <t>3107.6 (±433.4)</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>13.3% (±2.0%)</t>
+          <t>13.4% (±2.1%)</t>
         </is>
       </c>
       <c r="W32" t="n">
         <v>5437001</v>
       </c>
       <c r="X32" t="n">
-        <v>57</v>
+        <v>57.2</v>
       </c>
       <c r="Y32" t="n">
         <v>7.9</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>57.0(±7.9)</t>
+          <t>57.2(±7.9)</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
         <v>2020</v>
       </c>
       <c r="D33" t="n">
-        <v>39025</v>
+        <v>39030</v>
       </c>
       <c r="E33" t="n">
         <v>31721</v>
@@ -3458,7 +3458,7 @@
         <v>31933.70000000001</v>
       </c>
       <c r="P33" t="n">
-        <v>7570.6</v>
+        <v>7575.6</v>
       </c>
       <c r="Q33" t="n">
         <v>479.3</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>7570.6 (±479.3)</t>
+          <t>7575.6 (±479.3)</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -3488,14 +3488,14 @@
         <v>3252877</v>
       </c>
       <c r="X33" t="n">
-        <v>232.7</v>
+        <v>232.9</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>232.7(±14.8)</t>
+          <t>232.9(±14.7)</t>
         </is>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>2020</v>
       </c>
       <c r="D34" t="n">
-        <v>14827</v>
+        <v>14805</v>
       </c>
       <c r="E34" t="n">
         <v>14207</v>
@@ -3550,16 +3550,16 @@
         <v>14078</v>
       </c>
       <c r="P34" t="n">
-        <v>1193.6</v>
+        <v>1171.6</v>
       </c>
       <c r="Q34" t="n">
         <v>444.6</v>
       </c>
       <c r="R34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="S34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3568,26 +3568,26 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>1193.6 (±444.6)</t>
+          <t>1171.6 (±444.6)</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>8.8% (±3.5%)</t>
+          <t>8.6% (±3.4%)</t>
         </is>
       </c>
       <c r="W34" t="n">
         <v>1898006</v>
       </c>
       <c r="X34" t="n">
-        <v>62.9</v>
+        <v>61.7</v>
       </c>
       <c r="Y34" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>62.9(±23.4)</t>
+          <t>61.7(±23.5)</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>37231</v>
+        <v>37232</v>
       </c>
       <c r="E36" t="n">
         <v>30697</v>
@@ -3734,7 +3734,7 @@
         <v>31611.3</v>
       </c>
       <c r="P36" t="n">
-        <v>6016.4</v>
+        <v>6017.4</v>
       </c>
       <c r="Q36" t="n">
         <v>396.7</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>6016.4 (±396.7)</t>
+          <t>6017.4 (±396.7)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3764,14 +3764,14 @@
         <v>5122811</v>
       </c>
       <c r="X36" t="n">
-        <v>117.4</v>
+        <v>117.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>117.4(±7.8)</t>
+          <t>117.5(±7.7)</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E38" t="n">
         <v>4325</v>
@@ -3918,7 +3918,7 @@
         <v>4322.199999999999</v>
       </c>
       <c r="P38" t="n">
-        <v>58.2</v>
+        <v>59.2</v>
       </c>
       <c r="Q38" t="n">
         <v>110.4</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>58.2 (±110.4)</t>
+          <t>59.2 (±110.4)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3948,14 +3948,14 @@
         <v>609288</v>
       </c>
       <c r="X38" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Y38" t="n">
         <v>18.1</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>9.6(±18.1)</t>
+          <t>9.7(±18.1)</t>
         </is>
       </c>
     </row>
@@ -3974,7 +3974,7 @@
         <v>2020</v>
       </c>
       <c r="D39" t="n">
-        <v>13061</v>
+        <v>13062</v>
       </c>
       <c r="E39" t="n">
         <v>12773</v>
@@ -4010,7 +4010,7 @@
         <v>12946.6</v>
       </c>
       <c r="P39" t="n">
-        <v>230.2</v>
+        <v>231.2</v>
       </c>
       <c r="Q39" t="n">
         <v>115.8</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>230.2 (±115.8)</t>
+          <t>231.2 (±115.8)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -4043,11 +4043,11 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>8.8(±4.4)</t>
+          <t>8.8(±4.5)</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
         <v>2020</v>
       </c>
       <c r="D40" t="n">
-        <v>139748</v>
+        <v>139781</v>
       </c>
       <c r="E40" t="n">
         <v>127560</v>
@@ -4102,16 +4102,16 @@
         <v>128799.5</v>
       </c>
       <c r="P40" t="n">
-        <v>12058.6</v>
+        <v>12091.6</v>
       </c>
       <c r="Q40" t="n">
         <v>1110.1</v>
       </c>
       <c r="R40" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -4120,26 +4120,26 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>12058.6 (±1110.1)</t>
+          <t>12091.6 (±1110.1)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>9.4% (±0.9%)</t>
+          <t>9.5% (±1.0%)</t>
         </is>
       </c>
       <c r="W40" t="n">
         <v>31043740</v>
       </c>
       <c r="X40" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>38.8(±3.6)</t>
+          <t>39.0(±3.5)</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
         <v>2020</v>
       </c>
       <c r="D44" t="n">
-        <v>137476</v>
+        <v>137496</v>
       </c>
       <c r="E44" t="n">
         <v>121714</v>
@@ -4470,16 +4470,16 @@
         <v>121135.1</v>
       </c>
       <c r="P44" t="n">
-        <v>19709.4</v>
+        <v>19729.4</v>
       </c>
       <c r="Q44" t="n">
         <v>3368.5</v>
       </c>
       <c r="R44" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="S44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -4488,26 +4488,26 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>19709.4 (±3368.5)</t>
+          <t>19729.4 (±3368.5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>16.7% (±3.2%)</t>
+          <t>16.8% (±3.3%)</t>
         </is>
       </c>
       <c r="W44" t="n">
         <v>27394897</v>
       </c>
       <c r="X44" t="n">
-        <v>71.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="Y44" t="n">
         <v>12.3</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>71.9(±12.3)</t>
+          <t>72.0(±12.3)</t>
         </is>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
         <v>2020</v>
       </c>
       <c r="D46" t="n">
-        <v>12562</v>
+        <v>12796</v>
       </c>
       <c r="E46" t="n">
         <v>12593</v>
@@ -4654,16 +4654,16 @@
         <v>12245.9</v>
       </c>
       <c r="P46" t="n">
-        <v>1060</v>
+        <v>1294</v>
       </c>
       <c r="Q46" t="n">
         <v>743.9</v>
       </c>
       <c r="R46" t="n">
-        <v>9.199999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="S46" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4672,26 +4672,26 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>1060.0 (±743.9)</t>
+          <t>1294.0 (±743.9)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>9.2% (±6.6%)</t>
+          <t>11.3% (±6.8%)</t>
         </is>
       </c>
       <c r="W46" t="n">
         <v>1260097</v>
       </c>
       <c r="X46" t="n">
-        <v>84.09999999999999</v>
+        <v>102.7</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>84.1(±59.1)</t>
+          <t>102.7(±59.0)</t>
         </is>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
         <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="E47" t="n">
         <v>916</v>
@@ -4746,13 +4746,13 @@
         <v>1009.3</v>
       </c>
       <c r="P47" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="Q47" t="n">
         <v>28.3</v>
       </c>
       <c r="R47" t="n">
-        <v>12.1</v>
+        <v>10.1</v>
       </c>
       <c r="S47" t="n">
         <v>3.1</v>
@@ -4764,26 +4764,26 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>119.0 (±28.3)</t>
+          <t>99.0 (±28.3)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>12.1% (±3.1%)</t>
+          <t>10.1% (±3.1%)</t>
         </is>
       </c>
       <c r="W47" t="n">
         <v>305628</v>
       </c>
       <c r="X47" t="n">
-        <v>38.9</v>
+        <v>32.4</v>
       </c>
       <c r="Y47" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>38.9(±9.3)</t>
+          <t>32.4(±9.3)</t>
         </is>
       </c>
     </row>
@@ -4894,7 +4894,7 @@
         <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>2219</v>
+        <v>2247</v>
       </c>
       <c r="E49" t="n">
         <v>1859</v>
@@ -4930,13 +4930,13 @@
         <v>1943.2</v>
       </c>
       <c r="P49" t="n">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="Q49" t="n">
         <v>36.2</v>
       </c>
       <c r="R49" t="n">
-        <v>16.4</v>
+        <v>17.8</v>
       </c>
       <c r="S49" t="n">
         <v>2.2</v>
@@ -4948,26 +4948,26 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>312.0 (±36.2)</t>
+          <t>340.0 (±36.2)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>16.4% (±2.2%)</t>
+          <t>17.8% (±2.2%)</t>
         </is>
       </c>
       <c r="W49" t="n">
         <v>299237</v>
       </c>
       <c r="X49" t="n">
-        <v>104.3</v>
+        <v>113.6</v>
       </c>
       <c r="Y49" t="n">
         <v>12.1</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>104.3(±12.1)</t>
+          <t>113.6(±12.1)</t>
         </is>
       </c>
     </row>
@@ -5262,7 +5262,7 @@
         <v>2020</v>
       </c>
       <c r="D53" t="n">
-        <v>25828</v>
+        <v>25918</v>
       </c>
       <c r="E53" t="n">
         <v>23242</v>
@@ -5298,13 +5298,13 @@
         <v>23950.5</v>
       </c>
       <c r="P53" t="n">
-        <v>2221.8</v>
+        <v>2311.8</v>
       </c>
       <c r="Q53" t="n">
         <v>344.3</v>
       </c>
       <c r="R53" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S53" t="n">
         <v>1.6</v>
@@ -5316,26 +5316,26 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2221.8 (±344.3)</t>
+          <t>2311.8 (±344.3)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>9.4% (±1.6%)</t>
+          <t>9.8% (±1.6%)</t>
         </is>
       </c>
       <c r="W53" t="n">
         <v>4617281</v>
       </c>
       <c r="X53" t="n">
-        <v>48.1</v>
+        <v>50.1</v>
       </c>
       <c r="Y53" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>48.1(±7.5)</t>
+          <t>50.1(±7.4)</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
         <v>2020</v>
       </c>
       <c r="D55" t="n">
-        <v>18805</v>
+        <v>18798</v>
       </c>
       <c r="E55" t="n">
         <v>16583</v>
@@ -5482,13 +5482,13 @@
         <v>16793.79999999999</v>
       </c>
       <c r="P55" t="n">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="Q55" t="n">
         <v>179.8</v>
       </c>
       <c r="R55" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S55" t="n">
         <v>1.2</v>
@@ -5500,26 +5500,26 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2191.0 (±179.8)</t>
+          <t>2184.0 (±179.8)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>13.2% (±1.2%)</t>
+          <t>13.1% (±1.2%)</t>
         </is>
       </c>
       <c r="W55" t="n">
         <v>2608746</v>
       </c>
       <c r="X55" t="n">
-        <v>84</v>
+        <v>83.7</v>
       </c>
       <c r="Y55" t="n">
         <v>6.9</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>84.0(±6.9)</t>
+          <t>83.7(±6.9)</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>2020</v>
       </c>
       <c r="D57" t="n">
-        <v>100751</v>
+        <v>100754</v>
       </c>
       <c r="E57" t="n">
         <v>84419</v>
@@ -5666,7 +5666,7 @@
         <v>84768.20000000003</v>
       </c>
       <c r="P57" t="n">
-        <v>17077</v>
+        <v>17080</v>
       </c>
       <c r="Q57" t="n">
         <v>1094.2</v>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>17077.0 (±1094.2)</t>
+          <t>17080.0 (±1094.2)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -5814,7 +5814,7 @@
         <v>2020</v>
       </c>
       <c r="D59" t="n">
-        <v>14260</v>
+        <v>14285</v>
       </c>
       <c r="E59" t="n">
         <v>13145</v>
@@ -5850,13 +5850,13 @@
         <v>13124.8</v>
       </c>
       <c r="P59" t="n">
-        <v>1379.6</v>
+        <v>1404.6</v>
       </c>
       <c r="Q59" t="n">
         <v>244.4</v>
       </c>
       <c r="R59" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S59" t="n">
         <v>2.1</v>
@@ -5868,26 +5868,26 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>1379.6 (±244.4)</t>
+          <t>1404.6 (±244.4)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>10.7% (±2.1%)</t>
+          <t>10.9% (±2.1%)</t>
         </is>
       </c>
       <c r="W59" t="n">
         <v>4095086</v>
       </c>
       <c r="X59" t="n">
-        <v>33.7</v>
+        <v>34.3</v>
       </c>
       <c r="Y59" t="n">
         <v>6</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>33.7(±6.0)</t>
+          <t>34.3(±6.0)</t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
         <v>2020</v>
       </c>
       <c r="D61" t="n">
-        <v>42953</v>
+        <v>42971</v>
       </c>
       <c r="E61" t="n">
         <v>38716</v>
@@ -6034,7 +6034,7 @@
         <v>38762.39999999999</v>
       </c>
       <c r="P61" t="n">
-        <v>4824.6</v>
+        <v>4842.6</v>
       </c>
       <c r="Q61" t="n">
         <v>634</v>
@@ -6043,7 +6043,7 @@
         <v>12.7</v>
       </c>
       <c r="S61" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -6052,26 +6052,26 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>4824.6 (±634.0)</t>
+          <t>4842.6 (±634.0)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>12.7% (±1.9%)</t>
+          <t>12.7% (±1.8%)</t>
         </is>
       </c>
       <c r="W61" t="n">
         <v>10865678</v>
       </c>
       <c r="X61" t="n">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="Y61" t="n">
         <v>5.8</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>44.4(±5.8)</t>
+          <t>44.6(±5.8)</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
         <v>2020</v>
       </c>
       <c r="D62" t="n">
-        <v>63313</v>
+        <v>63320</v>
       </c>
       <c r="E62" t="n">
         <v>51733</v>
@@ -6126,7 +6126,7 @@
         <v>51940.80000000001</v>
       </c>
       <c r="P62" t="n">
-        <v>12160.6</v>
+        <v>12167.6</v>
       </c>
       <c r="Q62" t="n">
         <v>788.4</v>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>12160.6 (±788.4)</t>
+          <t>12167.6 (±788.4)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -6156,14 +6156,14 @@
         <v>6613177</v>
       </c>
       <c r="X62" t="n">
-        <v>183.9</v>
+        <v>184</v>
       </c>
       <c r="Y62" t="n">
         <v>11.9</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>183.9(±11.9)</t>
+          <t>184.0(±11.9)</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
         <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>23848</v>
+        <v>23814</v>
       </c>
       <c r="E63" t="n">
         <v>23151</v>
@@ -6218,13 +6218,13 @@
         <v>22784.1</v>
       </c>
       <c r="P63" t="n">
-        <v>1848.2</v>
+        <v>1814.2</v>
       </c>
       <c r="Q63" t="n">
         <v>784.3</v>
       </c>
       <c r="R63" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S63" t="n">
         <v>3.7</v>
@@ -6236,26 +6236,26 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>1848.2 (±784.3)</t>
+          <t>1814.2 (±784.3)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>8.4% (±3.7%)</t>
+          <t>8.2% (±3.7%)</t>
         </is>
       </c>
       <c r="W63" t="n">
         <v>3835857</v>
       </c>
       <c r="X63" t="n">
-        <v>48.2</v>
+        <v>47.3</v>
       </c>
       <c r="Y63" t="n">
         <v>20.4</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>48.2(±20.4)</t>
+          <t>47.3(±20.4)</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>59462</v>
+        <v>59463</v>
       </c>
       <c r="E65" t="n">
         <v>49382</v>
@@ -6402,7 +6402,7 @@
         <v>50868.7</v>
       </c>
       <c r="P65" t="n">
-        <v>9305</v>
+        <v>9306</v>
       </c>
       <c r="Q65" t="n">
         <v>711.7</v>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>9305.0 (±711.7)</t>
+          <t>9306.0 (±711.7)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -6550,7 +6550,7 @@
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>6719</v>
+        <v>6721</v>
       </c>
       <c r="E67" t="n">
         <v>6903</v>
@@ -6586,7 +6586,7 @@
         <v>6863.4</v>
       </c>
       <c r="P67" t="n">
-        <v>47.4</v>
+        <v>49.4</v>
       </c>
       <c r="Q67" t="n">
         <v>191.8</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>47.4 (±191.8)</t>
+          <t>49.4 (±191.8)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -6616,14 +6616,14 @@
         <v>1251531</v>
       </c>
       <c r="X67" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y67" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>3.8(±15.3)</t>
+          <t>3.9(±15.4)</t>
         </is>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
         <v>2020</v>
       </c>
       <c r="D68" t="n">
-        <v>20632</v>
+        <v>20633</v>
       </c>
       <c r="E68" t="n">
         <v>20028</v>
@@ -6678,7 +6678,7 @@
         <v>20365.9</v>
       </c>
       <c r="P68" t="n">
-        <v>389.6</v>
+        <v>390.6</v>
       </c>
       <c r="Q68" t="n">
         <v>123.5</v>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>389.6 (±123.5)</t>
+          <t>390.6 (±123.5)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -6711,11 +6711,11 @@
         <v>7.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>7.5(±2.3)</t>
+          <t>7.5(±2.4)</t>
         </is>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
         <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>217615</v>
+        <v>217663</v>
       </c>
       <c r="E69" t="n">
         <v>197049</v>
@@ -6770,7 +6770,7 @@
         <v>199812.5</v>
       </c>
       <c r="P69" t="n">
-        <v>18843</v>
+        <v>18891</v>
       </c>
       <c r="Q69" t="n">
         <v>1040.5</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>18843.0 (±1040.5)</t>
+          <t>18891.0 (±1040.5)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -6800,14 +6800,14 @@
         <v>63175406</v>
       </c>
       <c r="X69" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>29.8(±1.7)</t>
+          <t>29.9(±1.6)</t>
         </is>
       </c>
     </row>
@@ -7102,7 +7102,7 @@
         <v>2020</v>
       </c>
       <c r="D73" t="n">
-        <v>220941</v>
+        <v>220982</v>
       </c>
       <c r="E73" t="n">
         <v>200240</v>
@@ -7138,7 +7138,7 @@
         <v>199256.6</v>
       </c>
       <c r="P73" t="n">
-        <v>27266.4</v>
+        <v>27307.4</v>
       </c>
       <c r="Q73" t="n">
         <v>5582</v>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>27266.4 (±5582.0)</t>
+          <t>27307.4 (±5582.0)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -7168,14 +7168,14 @@
         <v>55221785</v>
       </c>
       <c r="X73" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="Y73" t="n">
         <v>10.1</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>49.4(±10.1)</t>
+          <t>49.5(±10.1)</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
         <v>2020</v>
       </c>
       <c r="D75" t="n">
-        <v>19842</v>
+        <v>20170</v>
       </c>
       <c r="E75" t="n">
         <v>19723</v>
@@ -7322,16 +7322,16 @@
         <v>19255.8</v>
       </c>
       <c r="P75" t="n">
-        <v>1659.2</v>
+        <v>1987.2</v>
       </c>
       <c r="Q75" t="n">
         <v>1073</v>
       </c>
       <c r="R75" t="n">
-        <v>9.1</v>
+        <v>10.9</v>
       </c>
       <c r="S75" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -7340,26 +7340,26 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>1659.2 (±1073.0)</t>
+          <t>1987.2 (±1073.0)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>9.1% (±6.1%)</t>
+          <t>10.9% (±6.2%)</t>
         </is>
       </c>
       <c r="W75" t="n">
         <v>2629544</v>
       </c>
       <c r="X75" t="n">
-        <v>63.1</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="Y75" t="n">
         <v>40.8</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>63.1(±40.8)</t>
+          <t>75.6(±40.8)</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
         <v>2020</v>
       </c>
       <c r="D76" t="n">
-        <v>1763</v>
+        <v>1725</v>
       </c>
       <c r="E76" t="n">
         <v>1492</v>
@@ -7414,13 +7414,13 @@
         <v>1630.1</v>
       </c>
       <c r="P76" t="n">
-        <v>187.4</v>
+        <v>149.4</v>
       </c>
       <c r="Q76" t="n">
         <v>54.5</v>
       </c>
       <c r="R76" t="n">
-        <v>11.9</v>
+        <v>9.5</v>
       </c>
       <c r="S76" t="n">
         <v>3.7</v>
@@ -7432,26 +7432,26 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>187.4 (±54.5)</t>
+          <t>149.4 (±54.5)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>11.9% (±3.7%)</t>
+          <t>9.5% (±3.7%)</t>
         </is>
       </c>
       <c r="W76" t="n">
         <v>601183</v>
       </c>
       <c r="X76" t="n">
-        <v>31.2</v>
+        <v>24.9</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>31.2(±9.0)</t>
+          <t>24.9(±9.0)</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>2020</v>
       </c>
       <c r="D78" t="n">
-        <v>3600</v>
+        <v>3646</v>
       </c>
       <c r="E78" t="n">
         <v>3205</v>
@@ -7598,13 +7598,13 @@
         <v>3280.000000000001</v>
       </c>
       <c r="P78" t="n">
-        <v>405.8</v>
+        <v>451.8</v>
       </c>
       <c r="Q78" t="n">
         <v>85.8</v>
       </c>
       <c r="R78" t="n">
-        <v>12.7</v>
+        <v>14.1</v>
       </c>
       <c r="S78" t="n">
         <v>2.9</v>
@@ -7616,26 +7616,26 @@
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>405.8 (±85.8)</t>
+          <t>451.8 (±85.8)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>12.7% (±2.9%)</t>
+          <t>14.1% (±2.9%)</t>
         </is>
       </c>
       <c r="W78" t="n">
         <v>600997</v>
       </c>
       <c r="X78" t="n">
-        <v>67.5</v>
+        <v>75.2</v>
       </c>
       <c r="Y78" t="n">
         <v>14.3</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>67.5(±14.3)</t>
+          <t>75.2(±14.3)</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         <v>2020</v>
       </c>
       <c r="D80" t="n">
-        <v>14452</v>
+        <v>14453</v>
       </c>
       <c r="E80" t="n">
         <v>13998</v>
@@ -7782,7 +7782,7 @@
         <v>14352.9</v>
       </c>
       <c r="P80" t="n">
-        <v>215.4</v>
+        <v>216.4</v>
       </c>
       <c r="Q80" t="n">
         <v>116.3</v>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>215.4 (±116.3)</t>
+          <t>216.4 (±116.3)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -7930,7 +7930,7 @@
         <v>2020</v>
       </c>
       <c r="D82" t="n">
-        <v>40820</v>
+        <v>40951</v>
       </c>
       <c r="E82" t="n">
         <v>36685</v>
@@ -7966,16 +7966,16 @@
         <v>37812.99999999999</v>
       </c>
       <c r="P82" t="n">
-        <v>3554.8</v>
+        <v>3685.8</v>
       </c>
       <c r="Q82" t="n">
         <v>547.8</v>
       </c>
       <c r="R82" t="n">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="S82" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -7984,26 +7984,26 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>3554.8 (±547.8)</t>
+          <t>3685.8 (±547.8)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>9.5% (±1.5%)</t>
+          <t>9.9% (±1.6%)</t>
         </is>
       </c>
       <c r="W82" t="n">
         <v>9620046</v>
       </c>
       <c r="X82" t="n">
-        <v>37</v>
+        <v>38.3</v>
       </c>
       <c r="Y82" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>37.0(±5.6)</t>
+          <t>38.3(±5.7)</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
         <v>2020</v>
       </c>
       <c r="D84" t="n">
-        <v>30260</v>
+        <v>30254</v>
       </c>
       <c r="E84" t="n">
         <v>26478</v>
@@ -8150,7 +8150,7 @@
         <v>26835.40000000001</v>
       </c>
       <c r="P84" t="n">
-        <v>3700.8</v>
+        <v>3694.8</v>
       </c>
       <c r="Q84" t="n">
         <v>276.2</v>
@@ -8159,7 +8159,7 @@
         <v>13.9</v>
       </c>
       <c r="S84" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
@@ -8168,26 +8168,26 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>3700.8 (±276.2)</t>
+          <t>3694.8 (±276.2)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>13.9% (±1.1%)</t>
+          <t>13.9% (±1.2%)</t>
         </is>
       </c>
       <c r="W84" t="n">
         <v>5273193</v>
       </c>
       <c r="X84" t="n">
-        <v>70.2</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="Y84" t="n">
         <v>5.2</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>70.2(±5.2)</t>
+          <t>70.1(±5.2)</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
         <v>2020</v>
       </c>
       <c r="D86" t="n">
-        <v>155279</v>
+        <v>155284</v>
       </c>
       <c r="E86" t="n">
         <v>128928</v>
@@ -8334,7 +8334,7 @@
         <v>129686.8</v>
       </c>
       <c r="P86" t="n">
-        <v>27057</v>
+        <v>27062</v>
       </c>
       <c r="Q86" t="n">
         <v>1464.8</v>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>27057.0 (±1464.8)</t>
+          <t>27062.0 (±1464.8)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -8482,7 +8482,7 @@
         <v>2020</v>
       </c>
       <c r="D88" t="n">
-        <v>23221</v>
+        <v>23257</v>
       </c>
       <c r="E88" t="n">
         <v>21511</v>
@@ -8518,16 +8518,16 @@
         <v>21570.40000000001</v>
       </c>
       <c r="P88" t="n">
-        <v>1964.8</v>
+        <v>2000.8</v>
       </c>
       <c r="Q88" t="n">
         <v>314.2</v>
       </c>
       <c r="R88" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="S88" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -8536,26 +8536,26 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>1964.8 (±314.2)</t>
+          <t>2000.8 (±314.2)</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>9.2% (±1.5%)</t>
+          <t>9.4% (±1.6%)</t>
         </is>
       </c>
       <c r="W88" t="n">
         <v>8152363</v>
       </c>
       <c r="X88" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="Y88" t="n">
         <v>3.9</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>24.1(±3.9)</t>
+          <t>24.5(±3.9)</t>
         </is>
       </c>
     </row>

--- a/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(0-4) - (75-79)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
+++ b/data_output/Excess Mortality/Countries/TOTAL_EUROPE_(0-4) - (75-79)_['Female', 'Male', 'Total']_excess_mortality_2020.xlsx
@@ -1030,7 +1030,7 @@
         <v>2020</v>
       </c>
       <c r="D7" t="n">
-        <v>22231</v>
+        <v>22234</v>
       </c>
       <c r="E7" t="n">
         <v>18685</v>
@@ -1066,7 +1066,7 @@
         <v>19258.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3288.6</v>
+        <v>3291.6</v>
       </c>
       <c r="Q7" t="n">
         <v>315.9</v>
@@ -1075,7 +1075,7 @@
         <v>17.4</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1084,26 +1084,26 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>3288.6 (±315.9)</t>
+          <t>3291.6 (±315.9)</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>17.4% (±2.0%)</t>
+          <t>17.4% (±1.9%)</t>
         </is>
       </c>
       <c r="W7" t="n">
         <v>5130028</v>
       </c>
       <c r="X7" t="n">
-        <v>64.09999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>64.1(±6.2)</t>
+          <t>64.2(±6.1)</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
         <v>2020</v>
       </c>
       <c r="D14" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E14" t="n">
         <v>325</v>
@@ -1710,16 +1710,16 @@
         <v>355.6</v>
       </c>
       <c r="P14" t="n">
-        <v>-1.4</v>
+        <v>-0.4</v>
       </c>
       <c r="Q14" t="n">
         <v>16.2</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="S14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1728,26 +1728,26 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-1.4 (±16.2)</t>
+          <t>-0.4 (±16.2)</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-0.4% (±4.5%)</t>
+          <t>-0.1% (±4.6%)</t>
         </is>
       </c>
       <c r="W14" t="n">
         <v>169968</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>-0.8(±9.5)</t>
+          <t>-0.2(±9.5)</t>
         </is>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
         <v>2020</v>
       </c>
       <c r="D36" t="n">
-        <v>37232</v>
+        <v>37233</v>
       </c>
       <c r="E36" t="n">
         <v>30697</v>
@@ -3734,7 +3734,7 @@
         <v>31611.3</v>
       </c>
       <c r="P36" t="n">
-        <v>6017.4</v>
+        <v>6018.4</v>
       </c>
       <c r="Q36" t="n">
         <v>396.7</v>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>6017.4 (±396.7)</t>
+          <t>6018.4 (±396.7)</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -3882,7 +3882,7 @@
         <v>2020</v>
       </c>
       <c r="D38" t="n">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="E38" t="n">
         <v>4325</v>
@@ -3918,7 +3918,7 @@
         <v>4322.199999999999</v>
       </c>
       <c r="P38" t="n">
-        <v>59.2</v>
+        <v>60.2</v>
       </c>
       <c r="Q38" t="n">
         <v>110.4</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>59.2 (±110.4)</t>
+          <t>60.2 (±110.4)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3948,14 +3948,14 @@
         <v>609288</v>
       </c>
       <c r="X38" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="Y38" t="n">
         <v>18.1</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>9.7(±18.1)</t>
+          <t>9.9(±18.1)</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
         <v>2020</v>
       </c>
       <c r="D43" t="n">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="E43" t="n">
         <v>433</v>
@@ -4378,13 +4378,13 @@
         <v>500.9</v>
       </c>
       <c r="P43" t="n">
-        <v>47.2</v>
+        <v>56.2</v>
       </c>
       <c r="Q43" t="n">
         <v>18.1</v>
       </c>
       <c r="R43" t="n">
-        <v>9.800000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="S43" t="n">
         <v>4</v>
@@ -4396,26 +4396,26 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>47.2 (±18.1)</t>
+          <t>56.2 (±18.1)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>9.8% (±4.0%)</t>
+          <t>11.6% (±4.0%)</t>
         </is>
       </c>
       <c r="W43" t="n">
         <v>181564</v>
       </c>
       <c r="X43" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Y43" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>26.0(±10.0)</t>
+          <t>31.0(±9.9)</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>2020</v>
       </c>
       <c r="D65" t="n">
-        <v>59463</v>
+        <v>59467</v>
       </c>
       <c r="E65" t="n">
         <v>49382</v>
@@ -6402,7 +6402,7 @@
         <v>50868.7</v>
       </c>
       <c r="P65" t="n">
-        <v>9306</v>
+        <v>9310</v>
       </c>
       <c r="Q65" t="n">
         <v>711.7</v>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>9306.0 (±711.7)</t>
+          <t>9310.0 (±711.7)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -6550,7 +6550,7 @@
         <v>2020</v>
       </c>
       <c r="D67" t="n">
-        <v>6721</v>
+        <v>6722</v>
       </c>
       <c r="E67" t="n">
         <v>6903</v>
@@ -6586,16 +6586,16 @@
         <v>6863.4</v>
       </c>
       <c r="P67" t="n">
-        <v>49.4</v>
+        <v>50.4</v>
       </c>
       <c r="Q67" t="n">
         <v>191.8</v>
       </c>
       <c r="R67" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="S67" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -6604,26 +6604,26 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>49.4 (±191.8)</t>
+          <t>50.4 (±191.8)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>0.7% (±2.8%)</t>
+          <t>0.8% (±2.9%)</t>
         </is>
       </c>
       <c r="W67" t="n">
         <v>1251531</v>
       </c>
       <c r="X67" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y67" t="n">
         <v>15.4</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>3.9(±15.4)</t>
+          <t>4.0(±15.4)</t>
         </is>
       </c>
     </row>
@@ -7010,7 +7010,7 @@
         <v>2020</v>
       </c>
       <c r="D72" t="n">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="E72" t="n">
         <v>758</v>
@@ -7046,13 +7046,13 @@
         <v>844.5999999999999</v>
       </c>
       <c r="P72" t="n">
-        <v>45.8</v>
+        <v>55.8</v>
       </c>
       <c r="Q72" t="n">
         <v>22.4</v>
       </c>
       <c r="R72" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="S72" t="n">
         <v>2.8</v>
@@ -7064,26 +7064,26 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>45.8 (±22.4)</t>
+          <t>55.8 (±22.4)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>5.6% (±2.8%)</t>
+          <t>6.8% (±2.8%)</t>
         </is>
       </c>
       <c r="W72" t="n">
         <v>351532</v>
       </c>
       <c r="X72" t="n">
-        <v>13</v>
+        <v>15.9</v>
       </c>
       <c r="Y72" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>13.0(±6.4)</t>
+          <t>15.9(±6.3)</t>
         </is>
       </c>
     </row>
